--- a/backend/data/네이트판.xlsx
+++ b/backend/data/네이트판.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,17 +466,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>친구가 질투나고 현타온다</t>
+          <t>모르는 남자랑 2박 3일 여행이라...</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2021.12.28 15:44</t>
+          <t>2021.12.29 16:35</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -496,17 +496,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>조언 부탁드려요...</t>
+          <t>내가 나쁜애인가</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2021.12.28 15:42</t>
+          <t>2021.12.29 16:33</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -526,17 +526,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>내년에 이루고 싶은 거 3개는?</t>
+          <t>가족이랑 해돋이 ㄷ 친구랑 파자마</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2021.12.28 15:40</t>
+          <t>2021.12.29 16:25</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -556,22 +556,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>인종차별</t>
+          <t>눈누난나</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2021.12.28 15:37</t>
+          <t>2021.12.29 16:16</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -586,25 +586,85 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>가족 계비</t>
+          <t>늙으면</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2021.12.28 15:24</t>
+          <t>2021.12.29 16:15</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>이거 가능함??</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2021.12.29 16:14</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>귀여운애들 특징이 뭐냐</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2021.12.29 16:13</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/backend/data/네이트판.xlsx
+++ b/backend/data/네이트판.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,17 +466,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>모르는 남자랑 2박 3일 여행이라...</t>
+          <t>대구 국정원소속. 부탁드립니다.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2021.12.29 16:35</t>
+          <t>2021.12.29 18:24</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -496,12 +496,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>내가 나쁜애인가</t>
+          <t>12월 30일, 시로 독립을 염원한 윤동주 시인의 생일</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2021.12.29 16:33</t>
+          <t>2021.12.29 18:23</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -526,17 +526,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>가족이랑 해돋이 ㄷ 친구랑 파자마</t>
+          <t>대성 올패스 이벤트</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2021.12.29 16:25</t>
+          <t>2021.12.29 18:21</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -556,22 +556,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>눈누난나</t>
+          <t>뷔짤2</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2021.12.29 16:16</t>
+          <t>2021.12.29 18:09</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -586,17 +586,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>늙으면</t>
+          <t>뷔짤</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2021.12.29 16:15</t>
+          <t>2021.12.29 18:09</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -606,7 +606,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -616,17 +616,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>이거 가능함??</t>
+          <t>20년때 생활비 안주는 아버지(17살)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2021.12.29 16:14</t>
+          <t>2021.12.29 18:05</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -635,36 +635,6 @@
         </is>
       </c>
       <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>귀여운애들 특징이 뭐냐</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>2021.12.29 16:13</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/backend/data/네이트판.xlsx
+++ b/backend/data/네이트판.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,17 +466,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>대구 국정원소속. 부탁드립니다.</t>
+          <t>이게 학교폭력이라고 생각해?</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2021.12.29 18:24</t>
+          <t>2021.12.29 19:01</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -496,17 +496,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>12월 30일, 시로 독립을 염원한 윤동주 시인의 생일</t>
+          <t>KT 인터넷 호구당한일..</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2021.12.29 18:23</t>
+          <t>2021.12.29 18:54</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -526,17 +526,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>대성 올패스 이벤트</t>
+          <t>뷔짤2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2021.12.29 18:21</t>
+          <t>2021.12.29 18:50</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>뷔짤2</t>
+          <t>뷔짤</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2021.12.29 18:09</t>
+          <t>2021.12.29 18:50</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -586,17 +586,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>뷔짤</t>
+          <t>야야 2주년 문구 추반 해줘</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2021.12.29 18:09</t>
+          <t>2021.12.29 18:35</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -605,36 +605,6 @@
         </is>
       </c>
       <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>20년때 생활비 안주는 아버지(17살)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:05</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/backend/data/네이트판.xlsx
+++ b/backend/data/네이트판.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,12 +466,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>이게 학교폭력이라고 생각해?</t>
+          <t>대성마이맥 듣는 사람 제발</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2021.12.29 19:01</t>
+          <t>2021.12.29 22:54</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -496,17 +496,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>KT 인터넷 호구당한일..</t>
+          <t>옷좀 입는 판녀 집합</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2021.12.29 18:54</t>
+          <t>2021.12.29 22:53</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -526,17 +526,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>뷔짤2</t>
+          <t>근육곰돌이 자랑 좀</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2021.12.29 18:50</t>
+          <t>2021.12.29 22:49</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>뷔짤</t>
+          <t>인강 교재</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2021.12.29 18:50</t>
+          <t>2021.12.29 22:46</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -586,25 +586,85 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>야야 2주년 문구 추반 해줘</t>
+          <t>도대체 뭘 살때마다 왜그렇게 자랑하는지?</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2021.12.29 18:35</t>
+          <t>2021.12.29 22:43</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>동명대학교 22학번 오픈채팅 참여코드 아는사람 ㅠㅠ</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2021.12.29 22:41</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>근육곰돌이 자랑 좀 하자</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2021.12.29 22:39</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/backend/data/네이트판.xlsx
+++ b/backend/data/네이트판.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,12 +466,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>대성마이맥 듣는 사람 제발</t>
+          <t>저는 전라도 광주사는 베트남 사람 응우옌꽝찌엣입니다! 경기도 서울 인천 충청도 경상도...</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2021.12.29 22:54</t>
+          <t>2021.12.30 17:35</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -496,17 +496,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>옷좀 입는 판녀 집합</t>
+          <t>연 끊는게 답이겠죠?</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2021.12.29 22:53</t>
+          <t>2021.12.30 17:34</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -526,17 +526,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>근육곰돌이 자랑 좀</t>
+          <t>진짜 내 잘못인가?</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2021.12.29 22:49</t>
+          <t>2021.12.30 17:33</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>인강 교재</t>
+          <t>ㅋ</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2021.12.29 22:46</t>
+          <t>2021.12.30 17:30</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -586,17 +586,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>도대체 뭘 살때마다 왜그렇게 자랑하는지?</t>
+          <t>아니왜굴이안ㅇ오라라ㅏ석</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2021.12.29 22:43</t>
+          <t>2021.12.30 17:30</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -616,17 +616,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>동명대학교 22학번 오픈채팅 참여코드 아는사람 ㅠㅠ</t>
+          <t>뷔짤2</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2021.12.29 22:41</t>
+          <t>2021.12.30 17:24</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -646,25 +646,85 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>근육곰돌이 자랑 좀 하자</t>
+          <t>뷔짤</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2021.12.29 22:39</t>
+          <t>2021.12.30 17:24</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>대한통운 파업</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:24</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>부산 쌍수 추천해주라!</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:22</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/backend/data/네이트판.xlsx
+++ b/backend/data/네이트판.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,17 +466,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>저는 전라도 광주사는 베트남 사람 응우옌꽝찌엣입니다! 경기도 서울 인천 충청도 경상도...</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2021.12.30 17:35</t>
+          <t>2021.12.30 18:06</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -496,237 +496,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>연 끊는게 답이겠죠?</t>
+          <t>각자 인생 여행+여행지 공유하자@@@@@(코로나 종식 기원</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2021.12.30 17:34</t>
+          <t>2021.12.30 17:49</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>진짜 내 잘못인가?</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:33</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>ㅋ</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:30</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>아니왜굴이안ㅇ오라라ㅏ석</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:30</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>뷔짤2</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:24</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
           <t>2</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>뷔짤</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:24</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>대한통운 파업</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:24</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>부산 쌍수 추천해주라!</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:22</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
